--- a/informational_interview.xlsx
+++ b/informational_interview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skarlupkaal\OneDrive - National Institutes of Health\PMF\NCI Special Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skarlupkaal\Documents\GitHub\informational_interviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D374E9-62F2-48AF-BE59-415C3CBAF713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0178190D-E7BB-4FEB-A940-62B5B7DF3632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="90" windowWidth="19000" windowHeight="10270" xr2:uid="{B1D3C1AE-CBE2-4F32-950B-8AF283EFEC58}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B1D3C1AE-CBE2-4F32-950B-8AF283EFEC58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="104">
   <si>
     <t>full_name</t>
   </si>
@@ -72,15 +72,6 @@
     <t>PMF Fellow</t>
   </si>
   <si>
-    <t>Cuong Nguyen</t>
-  </si>
-  <si>
-    <t>CBIIT</t>
-  </si>
-  <si>
-    <t>Tracy Truong</t>
-  </si>
-  <si>
     <t>Dan Crichton</t>
   </si>
   <si>
@@ -232,6 +223,129 @@
   </si>
   <si>
     <t>Government</t>
+  </si>
+  <si>
+    <t>IOD</t>
+  </si>
+  <si>
+    <t>Assistant Director of Scientific Strategy and Innovation</t>
+  </si>
+  <si>
+    <t>https://www.nhlbi.nih.gov/about/leadership/paltoo-dina</t>
+  </si>
+  <si>
+    <t>Program Director</t>
+  </si>
+  <si>
+    <t>https://cssi.cancer.gov/about-us/leadership/tony-dickherber-phd</t>
+  </si>
+  <si>
+    <t>https://ncats.nih.gov/staff/hold</t>
+  </si>
+  <si>
+    <t>https://datascience.nih.gov/women-in-data-science/susan-wright</t>
+  </si>
+  <si>
+    <t>Susan Gregurick</t>
+  </si>
+  <si>
+    <t>ODSS</t>
+  </si>
+  <si>
+    <t>Brandy Heckman-Stoddard</t>
+  </si>
+  <si>
+    <t>Sudhir Srivastava</t>
+  </si>
+  <si>
+    <t>Eva Szabo</t>
+  </si>
+  <si>
+    <t>Robert Shoemaker</t>
+  </si>
+  <si>
+    <t>Victor Kipnis</t>
+  </si>
+  <si>
+    <t>Phil Prorok</t>
+  </si>
+  <si>
+    <t>Christos Patriotis</t>
+  </si>
+  <si>
+    <t>Yurong Song</t>
+  </si>
+  <si>
+    <t>Phil Castle</t>
+  </si>
+  <si>
+    <t>Natalie Abrams</t>
+  </si>
+  <si>
+    <t>Matthew Chaloux</t>
+  </si>
+  <si>
+    <t>Fredrick</t>
+  </si>
+  <si>
+    <t>Elyse Leevan</t>
+  </si>
+  <si>
+    <t>Tom Riley</t>
+  </si>
+  <si>
+    <t>Kevin Dodd</t>
+  </si>
+  <si>
+    <t>Grant Izmirlian</t>
+  </si>
+  <si>
+    <t>Vance Berger</t>
+  </si>
+  <si>
+    <t>Daniel Cramer</t>
+  </si>
+  <si>
+    <t>Harvard</t>
+  </si>
+  <si>
+    <t>Brigham &amp; Women's Hospital</t>
+  </si>
+  <si>
+    <t>Samir Hanash</t>
+  </si>
+  <si>
+    <t>MD Anderson</t>
+  </si>
+  <si>
+    <t>Sean Kelly</t>
+  </si>
+  <si>
+    <t>Ian Brosnan</t>
+  </si>
+  <si>
+    <t>ARC</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Elizabeth Borden</t>
+  </si>
+  <si>
+    <t>UA - Phoenix</t>
+  </si>
+  <si>
+    <t>MD/PhD Graduate Student</t>
+  </si>
+  <si>
+    <t>Hana Dobrovolny</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>Principal Investigator</t>
   </si>
 </sst>
 </file>
@@ -594,16 +708,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9296D23C-0DFC-4144-9DED-DF73CC8548A3}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="20.36328125" customWidth="1"/>
-    <col min="3" max="7" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" customWidth="1"/>
+    <col min="4" max="7" width="8.7265625" customWidth="1"/>
     <col min="8" max="8" width="16.90625" customWidth="1"/>
     <col min="9" max="9" width="15.36328125" customWidth="1"/>
   </cols>
@@ -613,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -631,13 +746,13 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -645,10 +760,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -660,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -669,10 +784,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -693,117 +808,123 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -812,22 +933,22 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -836,100 +957,93 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
       <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -937,208 +1051,659 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
       <c r="F16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
       <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
       <c r="F19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="J19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>45</v>
       </c>
       <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" t="s">
         <v>64</v>
       </c>
-      <c r="C20" t="s">
+      <c r="J22" t="s">
         <v>65</v>
       </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
         <v>8</v>
       </c>
-      <c r="F20" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
       <c r="F23" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
